--- a/va_facility_data_2025-02-20/Indianapolis YMCA VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Indianapolis%20YMCA%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Indianapolis YMCA VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Indianapolis%20YMCA%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbac6fcb5d8c04eebb4ae125903708956"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rec60310381e844ff977a63ed5e84ef8e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R019a837a722b4f898157668582a8a59c"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rbdb8825e75d94ed2bd9fe24fcad44825"/>
   </x:sheets>
 </x:workbook>
 </file>
